--- a/rsc/书籍信息.xlsx
+++ b/rsc/书籍信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE97B9F5-B71C-442F-A6FC-93033330295F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB56C3-D372-4CEE-848F-A07C810A5E9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1596" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>书名</t>
   </si>
@@ -46,6 +46,88 @@
   </si>
   <si>
     <t>捐赠留言</t>
+  </si>
+  <si>
+    <t>《长歌行》</t>
+  </si>
+  <si>
+    <t>夏达</t>
+  </si>
+  <si>
+    <t>中国近现代小说</t>
+  </si>
+  <si>
+    <t>Ac-01</t>
+  </si>
+  <si>
+    <t>陈俊宇</t>
+  </si>
+  <si>
+    <t>山河不足重 重在遇知己</t>
+  </si>
+  <si>
+    <t>《世说新语八周刊》</t>
+  </si>
+  <si>
+    <t>猪乐桃</t>
+  </si>
+  <si>
+    <t>Ac-02</t>
+  </si>
+  <si>
+    <t>《筚路维艰》</t>
+  </si>
+  <si>
+    <t>萧冬连</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>Bb-01</t>
+  </si>
+  <si>
+    <t>《未来症》</t>
+  </si>
+  <si>
+    <t>鲁般</t>
+  </si>
+  <si>
+    <t>Ac-03</t>
+  </si>
+  <si>
+    <t>奥森·斯科特·卡德</t>
+  </si>
+  <si>
+    <t>外国近现代小说</t>
+  </si>
+  <si>
+    <t>Af-03</t>
+  </si>
+  <si>
+    <t>《房思琪的初恋乐园》</t>
+  </si>
+  <si>
+    <t>林奕含</t>
+  </si>
+  <si>
+    <t>Ac-04</t>
+  </si>
+  <si>
+    <t>《女性主义》</t>
+  </si>
+  <si>
+    <t>李银河</t>
+  </si>
+  <si>
+    <t>人文</t>
+  </si>
+  <si>
+    <t>Bd-03</t>
+  </si>
+  <si>
+    <t>《安德的游戏》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,18 +522,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A52407-C5B6-49FF-A6AD-1ECC40E51EC8}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A2:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -476,29 +558,145 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -506,7 +704,6 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -677,6 +874,9 @@
       <c r="F30" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G30">
+    <sortCondition ref="D1:D30"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/rsc/书籍信息.xlsx
+++ b/rsc/书籍信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB56C3-D372-4CEE-848F-A07C810A5E9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE56DE1-2E9B-4F6D-9F33-8EDC5029C730}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>书名</t>
   </si>
@@ -48,86 +48,31 @@
     <t>捐赠留言</t>
   </si>
   <si>
-    <t>《长歌行》</t>
-  </si>
-  <si>
-    <t>夏达</t>
-  </si>
-  <si>
-    <t>中国近现代小说</t>
-  </si>
-  <si>
-    <t>Ac-01</t>
-  </si>
-  <si>
-    <t>陈俊宇</t>
-  </si>
-  <si>
-    <t>山河不足重 重在遇知己</t>
-  </si>
-  <si>
-    <t>《世说新语八周刊》</t>
-  </si>
-  <si>
-    <t>猪乐桃</t>
-  </si>
-  <si>
-    <t>Ac-02</t>
-  </si>
-  <si>
-    <t>《筚路维艰》</t>
-  </si>
-  <si>
-    <t>萧冬连</t>
+    <t>《1》</t>
+  </si>
+  <si>
+    <t>cai</t>
+  </si>
+  <si>
+    <t>文学理论</t>
+  </si>
+  <si>
+    <t>Aa-01</t>
+  </si>
+  <si>
+    <t>cyw</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>《2》</t>
   </si>
   <si>
     <t>政治</t>
   </si>
   <si>
-    <t>Bb-01</t>
-  </si>
-  <si>
-    <t>《未来症》</t>
-  </si>
-  <si>
-    <t>鲁般</t>
-  </si>
-  <si>
-    <t>Ac-03</t>
-  </si>
-  <si>
-    <t>奥森·斯科特·卡德</t>
-  </si>
-  <si>
-    <t>外国近现代小说</t>
-  </si>
-  <si>
-    <t>Af-03</t>
-  </si>
-  <si>
-    <t>《房思琪的初恋乐园》</t>
-  </si>
-  <si>
-    <t>林奕含</t>
-  </si>
-  <si>
-    <t>Ac-04</t>
-  </si>
-  <si>
-    <t>《女性主义》</t>
-  </si>
-  <si>
-    <t>李银河</t>
-  </si>
-  <si>
-    <t>人文</t>
-  </si>
-  <si>
-    <t>Bd-03</t>
-  </si>
-  <si>
-    <t>《安德的游戏》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Bb-02</t>
   </si>
 </sst>
 </file>
@@ -522,18 +467,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A52407-C5B6-49FF-A6AD-1ECC40E51EC8}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -583,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -595,106 +540,6 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/rsc/书籍信息.xlsx
+++ b/rsc/书籍信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE56DE1-2E9B-4F6D-9F33-8EDC5029C730}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05687509-A81A-4ECC-8013-1B35BE4F4787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>书名</t>
   </si>
@@ -46,33 +46,6 @@
   </si>
   <si>
     <t>捐赠留言</t>
-  </si>
-  <si>
-    <t>《1》</t>
-  </si>
-  <si>
-    <t>cai</t>
-  </si>
-  <si>
-    <t>文学理论</t>
-  </si>
-  <si>
-    <t>Aa-01</t>
-  </si>
-  <si>
-    <t>cyw</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>《2》</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>Bb-02</t>
   </si>
 </sst>
 </file>
@@ -468,7 +441,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A2:F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -503,46 +476,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>

--- a/rsc/书籍信息.xlsx
+++ b/rsc/书籍信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05687509-A81A-4ECC-8013-1B35BE4F4787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C9614-30F0-4847-880D-4BAEBA215156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -441,15 +441,15 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2" customWidth="1"/>

--- a/rsc/书籍信息.xlsx
+++ b/rsc/书籍信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C9614-30F0-4847-880D-4BAEBA215156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C9CF7F-A6AD-44F8-981B-D9AD39E486BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -440,18 +440,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A52407-C5B6-49FF-A6AD-1ECC40E51EC8}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -476,61 +474,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
